--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EE81" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80E0" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="849F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B78E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9901" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C13A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFE4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F367" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A01" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B404" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A5E3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCD2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B387" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E34A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FCB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A66D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F86E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DEA5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9AAD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BF31" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C2C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D22D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A471" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE4C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="99D9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87A6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C246" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B5FA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B206" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FD8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="80E0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C2B2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B78E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FFB8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C13A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E83A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F367" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA44" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B404" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B5A5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCD2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA49" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E34A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B9DC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A66D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C86A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DEA5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E357" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BF31" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8391" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D22D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A01E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE4C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCD5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="87A6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E93" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B5FA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FB61" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FD8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8317" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C2B2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87D5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FFB8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B37A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E83A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9713" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA44" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E71E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B5A5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F51E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA49" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F680" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B9DC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A4EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C86A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C89C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E357" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A3EE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8391" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D041" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A01E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D3E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCD5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A2D2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E93" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="808D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FB61" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C11A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8317" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E3CC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="87D5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED5B" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B37A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F954" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9713" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C5BE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E71E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E6A3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F51E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E906" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F680" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCB2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A4EC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA3B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C89C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB6A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A3EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A5E8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D041" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1B2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D3E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="837B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A2D2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EBA9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="808D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C21" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C11A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A376" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E3CC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A62D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="ED5B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F171" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F954" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D85C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C5BE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E975" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E6A3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A044" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E906" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FEF8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCB2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C462" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA3B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B92" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CB6A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9318" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A5E8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F444" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A1B2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F9F6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="837B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED14" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EBA9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E580" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C21" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9BFD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A376" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B15C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A62D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A29" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F171" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B882" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D85C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F56" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E975" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9930" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A044" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD5C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEF8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD0C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C462" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D435" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B92" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="830D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9318" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EEA4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F444" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="814C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F9F6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE32" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ED14" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A594" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E580" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACA3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9BFD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D731" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B15C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA49" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A29" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E77F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B882" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE4E" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F56" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E6F5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9930" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D55" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD5C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C07E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD0C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C083" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D435" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C965" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="830D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE2A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EEA4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D9E2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="814C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C277" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE32" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DEEA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A594" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D2E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACA3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B8CD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D731" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFAB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA49" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A705" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E77F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E48A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="AE4E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EEF5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E6F5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF43" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D55" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B19" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C07E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BFF3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C083" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F917" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C965" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D15E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE2A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A117" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D9E2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="943F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C277" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C8F7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DEEA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A585" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D2E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC77" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B8CD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F618" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFAB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C1DE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A705" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE33" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E48A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A60F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EEF5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C03C" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF43" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EEEA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B19" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D2B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BFF3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCE3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F917" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80FC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D15E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B15F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A117" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C73E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="943F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97EE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C8F7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B58F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A585" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DFB8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC77" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD62" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F618" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DAEE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C1DE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA85" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE33" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9DA1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A60F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7B4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C03C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CDD5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EEEA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C906" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D2B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8646" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCE3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB9C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="80FC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA22" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B15F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCCB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C73E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8208" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B6E8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B58F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CB6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFB8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D518" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD62" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="95D3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DAEE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA15" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DA85" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A6BA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DA1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FEC3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7B4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF11" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/sc_rnaseq_mixs_v0.3.xlsx
@@ -2750,7 +2750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CDD5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DCE6" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,7 +2831,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C906" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACEF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3137,7 +3137,7 @@
       <c r="X4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8646" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D37A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:X4"/>
   </mergeCells>
@@ -3218,7 +3218,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB9C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="810B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3340,7 +3340,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA22" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F2C5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3492,7 +3492,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCCB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A5A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3702,7 +3702,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8208" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE20" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3871,7 +3871,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B6E8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B3C0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CB6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9312" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -4787,7 +4787,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D518" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F1A0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4876,7 +4876,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="95D3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9AAF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5031,7 +5031,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA15" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C018" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5224,7 +5224,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A6BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E68E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5681,7 +5681,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEC3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C189" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -5955,7 +5955,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF11" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F8FD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
